--- a/cns/(cns.generator)/D01C Combination Service Entrance Devices.xlsx
+++ b/cns/(cns.generator)/D01C Combination Service Entrance Devices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-12" windowWidth="23124" windowHeight="4272" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-12" windowWidth="23124" windowHeight="4272"/>
   </bookViews>
   <sheets>
     <sheet name="Easy Selector Jump Start" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="200">
   <si>
     <t>Catalog#</t>
   </si>
@@ -489,9 +489,6 @@
     <t>CU816D400CB</t>
   </si>
   <si>
-    <t>ug</t>
-  </si>
-  <si>
     <t>CUM400CB</t>
   </si>
   <si>
@@ -511,6 +508,117 @@
   </si>
   <si>
     <t>_17701021</t>
+  </si>
+  <si>
+    <t>QU12L400SL</t>
+  </si>
+  <si>
+    <t>Ringless Type - QO</t>
+  </si>
+  <si>
+    <t>Class 320 Lever</t>
+  </si>
+  <si>
+    <t>QU816D400SL</t>
+  </si>
+  <si>
+    <t>QU12L400CL</t>
+  </si>
+  <si>
+    <t>QU816D400CL</t>
+  </si>
+  <si>
+    <t>QUM400CL</t>
+  </si>
+  <si>
+    <t>2 (2)</t>
+  </si>
+  <si>
+    <t>QUM400CK</t>
+  </si>
+  <si>
+    <t>K-4 Bolt-On</t>
+  </si>
+  <si>
+    <t>SU3040D300CB</t>
+  </si>
+  <si>
+    <t>300A</t>
+  </si>
+  <si>
+    <t>SU3040D400CN</t>
+  </si>
+  <si>
+    <t>SU3040D400CB</t>
+  </si>
+  <si>
+    <t>RU3040D400CL</t>
+  </si>
+  <si>
+    <t>RU3040D400FK</t>
+  </si>
+  <si>
+    <t>Meter Mains and All-in-Ones (150A-200A)</t>
+  </si>
+  <si>
+    <t>QC816F150SS</t>
+  </si>
+  <si>
+    <t>Ringless - QO Meter Main</t>
+  </si>
+  <si>
+    <t>QC816F150SLS</t>
+  </si>
+  <si>
+    <t>QC816F200SS</t>
+  </si>
+  <si>
+    <t>QC816F200SLS</t>
+  </si>
+  <si>
+    <t>RC816F150SS</t>
+  </si>
+  <si>
+    <t>Ringless - HOM Meter Main</t>
+  </si>
+  <si>
+    <t>RC816F150SLS</t>
+  </si>
+  <si>
+    <t>RC816F200SS</t>
+  </si>
+  <si>
+    <t>RC816F200SHS</t>
+  </si>
+  <si>
+    <t>RC816F200SLS</t>
+  </si>
+  <si>
+    <t>QC2442M200SS</t>
+  </si>
+  <si>
+    <t>All-in-One CSED (150A-200A)</t>
+  </si>
+  <si>
+    <t>QC2442M200SHS</t>
+  </si>
+  <si>
+    <t>RC2040M150SHS</t>
+  </si>
+  <si>
+    <t>RC3040M150SLS</t>
+  </si>
+  <si>
+    <t>RC2040M200SS</t>
+  </si>
+  <si>
+    <t>RC2040M200SHS</t>
+  </si>
+  <si>
+    <t>SO2040M200SS</t>
+  </si>
+  <si>
+    <t>RC3040M200SLS</t>
   </si>
 </sst>
 </file>
@@ -1263,11 +1371,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N277"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomRight" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1278,7 +1386,7 @@
     <col min="4" max="4" width="35.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
@@ -2815,7 +2923,7 @@
         <v>105</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>43</v>
@@ -2853,7 +2961,7 @@
         <v>106</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>43</v>
@@ -2891,7 +2999,7 @@
         <v>107</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>43</v>
@@ -2929,7 +3037,7 @@
         <v>108</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>43</v>
@@ -2967,7 +3075,7 @@
         <v>109</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>43</v>
@@ -3005,7 +3113,7 @@
         <v>110</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>43</v>
@@ -3043,7 +3151,7 @@
         <v>111</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>43</v>
@@ -3081,7 +3189,7 @@
         <v>112</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>43</v>
@@ -3119,7 +3227,7 @@
         <v>113</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>43</v>
@@ -3157,7 +3265,7 @@
         <v>117</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>43</v>
@@ -3195,7 +3303,7 @@
         <v>119</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>43</v>
@@ -3233,7 +3341,7 @@
         <v>121</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>43</v>
@@ -3271,7 +3379,7 @@
         <v>123</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>43</v>
@@ -3309,7 +3417,7 @@
         <v>124</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>43</v>
@@ -3347,7 +3455,7 @@
         <v>127</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>43</v>
@@ -3385,7 +3493,7 @@
         <v>128</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>43</v>
@@ -3423,7 +3531,7 @@
         <v>129</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>43</v>
@@ -3461,7 +3569,7 @@
         <v>131</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>43</v>
@@ -3499,7 +3607,7 @@
         <v>132</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>43</v>
@@ -3537,7 +3645,7 @@
         <v>134</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>43</v>
@@ -3575,7 +3683,7 @@
         <v>135</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>43</v>
@@ -3613,7 +3721,7 @@
         <v>136</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>43</v>
@@ -3651,7 +3759,7 @@
         <v>137</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>43</v>
@@ -3689,7 +3797,7 @@
         <v>138</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>43</v>
@@ -3727,7 +3835,7 @@
         <v>139</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>43</v>
@@ -3765,7 +3873,7 @@
         <v>140</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>43</v>
@@ -3803,7 +3911,7 @@
         <v>141</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>43</v>
@@ -3841,7 +3949,7 @@
         <v>142</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>43</v>
@@ -3879,7 +3987,7 @@
         <v>144</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>43</v>
@@ -3917,7 +4025,7 @@
         <v>145</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>43</v>
@@ -3955,7 +4063,7 @@
         <v>146</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>43</v>
@@ -3993,7 +4101,7 @@
         <v>147</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>43</v>
@@ -4031,7 +4139,7 @@
         <v>152</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>43</v>
@@ -4069,7 +4177,7 @@
         <v>154</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>43</v>
@@ -4107,7 +4215,7 @@
         <v>155</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>43</v>
@@ -4142,10 +4250,10 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>43</v>
@@ -4163,258 +4271,1087 @@
         <v>153</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="K76" s="20" t="s">
         <v>41</v>
       </c>
       <c r="L76" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M76" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N76" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="M76" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="N76" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="D77" s="8"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="M77" s="20"/>
+      <c r="E77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J77" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K77" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M77" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="N77" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="D78" s="8"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="M78" s="20"/>
+      <c r="A78" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J78" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K78" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M78" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N78" s="20" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="D79" s="8"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="M79" s="20"/>
+      <c r="A79" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J79" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K79" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M79" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="N79" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="D80" s="8"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="20"/>
-      <c r="M80" s="20"/>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="19"/>
-      <c r="D81" s="8"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="M81" s="20"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="D82" s="8"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="M82" s="20"/>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="D83" s="8"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="M83" s="20"/>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="A80" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J80" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K80" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M80" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="N80" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J81" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K81" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M81" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N81" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J82" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K82" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M82" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N82" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J83" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K83" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M83" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N83" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="C84" s="16"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="20"/>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="D85" s="8"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="M85" s="20"/>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="D86" s="8"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="M86" s="20"/>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="D87" s="8"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="M87" s="20"/>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="D88" s="8"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="M88" s="20"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="D89" s="8"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="M89" s="20"/>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="D90" s="8"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
-      <c r="M90" s="20"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="D91" s="8"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="M91" s="20"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="D92" s="8"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
-      <c r="M92" s="20"/>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="D93" s="8"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
-      <c r="M93" s="20"/>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="D94" s="8"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="M94" s="20"/>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="D95" s="8"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="20"/>
-      <c r="M95" s="20"/>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="D96" s="8"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-      <c r="M96" s="20"/>
-    </row>
-    <row r="97" spans="4:13">
-      <c r="D97" s="8"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="M97" s="20"/>
-    </row>
-    <row r="98" spans="4:13">
-      <c r="D98" s="8"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="M98" s="20"/>
-    </row>
-    <row r="99" spans="4:13">
-      <c r="D99" s="8"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="M99" s="20"/>
-    </row>
-    <row r="100" spans="4:13">
-      <c r="D100" s="8"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
-      <c r="M100" s="20"/>
-    </row>
-    <row r="101" spans="4:13">
-      <c r="D101" s="8"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="J101" s="20"/>
-      <c r="K101" s="20"/>
-      <c r="M101" s="20"/>
-    </row>
-    <row r="102" spans="4:13">
-      <c r="D102" s="8"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="M102" s="20"/>
-    </row>
-    <row r="103" spans="4:13">
-      <c r="D103" s="8"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="J103" s="20"/>
-      <c r="K103" s="20"/>
-      <c r="M103" s="20"/>
-    </row>
-    <row r="104" spans="4:13">
-      <c r="D104" s="8"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="J104" s="20"/>
-      <c r="K104" s="20"/>
-      <c r="M104" s="20"/>
-    </row>
-    <row r="105" spans="4:13">
+      <c r="D84" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J84" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K84" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L84" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M84" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N84" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J85" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K85" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M85" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N85" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J86" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K86" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M86" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N86" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J87" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K87" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M87" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N87" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J88" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K88" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M88" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N88" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J89" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K89" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M89" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N89" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J90" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K90" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M90" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N90" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J91" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K91" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M91" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N91" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J92" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K92" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M92" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N92" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J93" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K93" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M93" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N93" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J94" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K94" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M94" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N94" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J95" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K95" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M95" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N95" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J96" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K96" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M96" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N96" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J97" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K97" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M97" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N97" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J98" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K98" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M98" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N98" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J99" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K99" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M99" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N99" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J100" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K100" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M100" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N100" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J101" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K101" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M101" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N101" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J102" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K102" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M102" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N102" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J103" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="K103" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M103" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N103" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J104" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K104" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M104" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N104" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="D105" s="8"/>
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
@@ -4422,7 +5359,7 @@
       <c r="K105" s="20"/>
       <c r="M105" s="20"/>
     </row>
-    <row r="106" spans="4:13">
+    <row r="106" spans="1:14">
       <c r="D106" s="8"/>
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
@@ -4430,7 +5367,7 @@
       <c r="K106" s="20"/>
       <c r="M106" s="20"/>
     </row>
-    <row r="107" spans="4:13">
+    <row r="107" spans="1:14">
       <c r="D107" s="8"/>
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
@@ -4438,7 +5375,7 @@
       <c r="K107" s="20"/>
       <c r="M107" s="20"/>
     </row>
-    <row r="108" spans="4:13">
+    <row r="108" spans="1:14">
       <c r="D108" s="8"/>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
@@ -4446,7 +5383,7 @@
       <c r="K108" s="20"/>
       <c r="M108" s="20"/>
     </row>
-    <row r="109" spans="4:13">
+    <row r="109" spans="1:14">
       <c r="D109" s="8"/>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
@@ -4454,7 +5391,7 @@
       <c r="K109" s="20"/>
       <c r="M109" s="20"/>
     </row>
-    <row r="110" spans="4:13">
+    <row r="110" spans="1:14">
       <c r="D110" s="8"/>
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
@@ -4462,7 +5399,7 @@
       <c r="K110" s="20"/>
       <c r="M110" s="20"/>
     </row>
-    <row r="111" spans="4:13">
+    <row r="111" spans="1:14">
       <c r="D111" s="8"/>
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
@@ -4470,7 +5407,7 @@
       <c r="K111" s="20"/>
       <c r="M111" s="20"/>
     </row>
-    <row r="112" spans="4:13">
+    <row r="112" spans="1:14">
       <c r="D112" s="8"/>
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
@@ -5835,7 +6772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -5902,7 +6839,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>35</v>
@@ -5916,10 +6853,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="7"/>
@@ -5930,10 +6867,10 @@
         <v>22</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="7"/>
